--- a/docs/_static/files/Form_A1_PCB_Incoming_Inspection.xlsx
+++ b/docs/_static/files/Form_A1_PCB_Incoming_Inspection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Norbert_Privat\OpenPlotter\Windsensor_Yachta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457C14F8-4FB6-4A7A-A7ED-73E2427FBA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCF1AA5-F220-4F15-8FBD-2F15B59F9007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DB4170C5-9648-4455-8EF8-D76170D8B2E9}"/>
+    <workbookView xWindow="32280" yWindow="930" windowWidth="21600" windowHeight="12585" xr2:uid="{DB4170C5-9648-4455-8EF8-D76170D8B2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Form A1 - PCP Incoming Inspection</t>
-  </si>
-  <si>
     <t>Check Item</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Electrical E-Test provided</t>
+  </si>
+  <si>
+    <t>Form A1 - PCB Incoming Inspection</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,29 +496,29 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -536,7 +536,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -545,7 +545,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -554,7 +554,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -794,20 +794,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f31fd80d-9f18-476f-bebd-af41c2015ddc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f31fd80d-9f18-476f-bebd-af41c2015ddc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -830,14 +830,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5370E3A-B095-43C3-BC2F-28BCEF826309}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6C5F76-2F1E-4365-8207-022B6435508D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="a5f70664-73eb-4370-9a6f-30e57d26fa3b"/>
@@ -852,4 +844,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5370E3A-B095-43C3-BC2F-28BCEF826309}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>